--- a/data/trans_bre/P22_R3-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R3-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.525596806496467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.275222551839308</v>
+        <v>0.2752225518393082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1990745325195398</v>
@@ -649,7 +649,7 @@
         <v>-0.4230303323574471</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4135084931516608</v>
+        <v>0.413508493151661</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.350800150353108</v>
+        <v>-1.210242435429033</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.098437620495859</v>
+        <v>-1.139408505038239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.542354891439563</v>
+        <v>-1.538910241820882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9845245252876694</v>
+        <v>-0.9169993460564738</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5510609544436683</v>
+        <v>-0.576069554180185</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5365311052544796</v>
+        <v>-0.5612229671826113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8164142142399105</v>
+        <v>-0.8205157191997555</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8998356471038547</v>
+        <v>-0.8978588824021989</v>
       </c>
     </row>
     <row r="6">
@@ -692,27 +692,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.630422171518223</v>
+        <v>1.604978989948288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.285723394939019</v>
+        <v>1.183839299738769</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2803477984262678</v>
+        <v>0.2914145806185453</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.462791612528259</v>
+        <v>1.454144429177091</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.986340047289705</v>
+        <v>2.041635689338665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.399458209762795</v>
+        <v>1.272856103670325</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5299529328815752</v>
-      </c>
-      <c r="J6" s="6" t="inlineStr"/>
+        <v>0.4558205620621033</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>9.314035598090628</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -735,7 +737,7 @@
         <v>-0.05095219894057298</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.5197196081959189</v>
+        <v>-0.5197196081959187</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.647339731697481</v>
@@ -747,7 +749,7 @@
         <v>-0.01547629334100029</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3737966326461679</v>
+        <v>-0.3737966326461678</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.157217864140883</v>
+        <v>1.153264250676007</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.371187021284682</v>
+        <v>-1.120265858565102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.811136828474516</v>
+        <v>-1.575037257441532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.84119448017214</v>
+        <v>-1.964975656651719</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4922141783665192</v>
+        <v>0.4624314126696922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4369403862885837</v>
+        <v>-0.3295962160013163</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4278721906986948</v>
+        <v>-0.4181301097755824</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7465327289473953</v>
+        <v>-0.78256731952021</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.186260115858078</v>
+        <v>3.971450741472498</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.008936833506554</v>
+        <v>1.976870058099639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.502309922328171</v>
+        <v>1.554818106085568</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3447319220316226</v>
+        <v>0.322490479092952</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.085136199684287</v>
+        <v>3.835692867634511</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.064462946199326</v>
+        <v>1.127030728820838</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6288551043421184</v>
+        <v>0.6309716458723564</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5317912334168735</v>
+        <v>0.5118995852510421</v>
       </c>
     </row>
     <row r="10">
@@ -847,7 +849,7 @@
         <v>-0.2777528557410852</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2979410369618329</v>
+        <v>-0.2979410369618327</v>
       </c>
     </row>
     <row r="11">
@@ -858,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.272888396239436</v>
+        <v>-2.40439192039848</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.357448436276274</v>
+        <v>-5.524495530499209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.403223357122318</v>
+        <v>-4.963009028163476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.327054442180083</v>
+        <v>-3.623832240347753</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3557283517570785</v>
+        <v>-0.3723857546424286</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6608173187227018</v>
+        <v>-0.6685681098127267</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5254145016368434</v>
+        <v>-0.550498839074842</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5294192042753099</v>
+        <v>-0.5561469049835588</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.866300334066183</v>
+        <v>1.556817462622584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.8594065866233428</v>
+        <v>-0.8138982176352505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2761493809435924</v>
+        <v>0.2494779995038674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2617387062666251</v>
+        <v>0.1914589617417031</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3948131532117502</v>
+        <v>0.3445994439760082</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1283322139078918</v>
+        <v>-0.1299981413722446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06358019987252179</v>
+        <v>0.0436044912963937</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.09251072578630841</v>
+        <v>0.04389066032720334</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +937,7 @@
         <v>-2.394938129016579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.6004490277405246</v>
+        <v>-0.6004490277405252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05259882451632033</v>
@@ -947,7 +949,7 @@
         <v>-0.2311754470970849</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.09725798491201702</v>
+        <v>-0.09725798491201712</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.113789227580251</v>
+        <v>-3.152775739275916</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.086948895786968</v>
+        <v>-6.842686611505383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.418378356562757</v>
+        <v>-6.162032257448747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.798961863883447</v>
+        <v>-2.928282465672304</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3549273608561572</v>
+        <v>-0.2906378700875137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5266268743218575</v>
+        <v>-0.5011708874495449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4972518521029589</v>
+        <v>-0.4877031377335013</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3695205300322961</v>
+        <v>-0.3810245020030182</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.616687193380723</v>
+        <v>4.779563760984572</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.591799790112991</v>
+        <v>2.27937526744873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.720202597717404</v>
+        <v>1.314027138470022</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.308266661203285</v>
+        <v>1.550775486811593</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.597095537240665</v>
+        <v>0.6403658354108427</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2015349133752241</v>
+        <v>0.2730073204953216</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2073765120385198</v>
+        <v>0.1765108821333993</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2731763199298091</v>
+        <v>0.3095936702464852</v>
       </c>
     </row>
     <row r="16">
@@ -1058,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7331445680260413</v>
+        <v>-0.7204537278326709</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.193367012789454</v>
+        <v>-2.20739795345077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.266644760775189</v>
+        <v>-2.351087081846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.846644175032194</v>
+        <v>-1.832525528543678</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1610549085615922</v>
+        <v>-0.1622342996073326</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4224977344236597</v>
+        <v>-0.4179374858947423</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4272645029160349</v>
+        <v>-0.4379613981717736</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4192419019091937</v>
+        <v>-0.4216167353368971</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.301607290784002</v>
+        <v>1.318647255239722</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.09852951707733976</v>
+        <v>-0.1231848384776676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.2467567388828037</v>
+        <v>-0.3231304539375606</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.1394887335224535</v>
+        <v>-0.08231506563566759</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3634878218596995</v>
+        <v>0.3728088329000616</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.02245772034268436</v>
+        <v>-0.02745062375371582</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.05165290120774005</v>
+        <v>-0.07313558227133411</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.03744522171441247</v>
+        <v>-0.02073363335012326</v>
       </c>
     </row>
     <row r="19">
